--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>629637.9120358732</v>
+        <v>627199.5220774561</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320.9520320735829</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.10770370628455</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>44.45149398000776</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>36.02766158664619</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>197.9542203212544</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,7 +908,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>116.0403389961696</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>97.32228826427088</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -953,7 +953,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>119.8620943363778</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>200.37447115602</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>117.0340619339638</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>275.0428790940291</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>121.6303968182409</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>26.6692588683104</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.4423155261899</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>359.5517498754676</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1528,13 +1528,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>111.3598553131475</v>
       </c>
       <c r="E13" t="n">
-        <v>84.56702400647366</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1771,10 +1771,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1850,10 +1850,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -2002,16 +2002,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>107.4021082756243</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182112</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>71.79687029691117</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819381</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188665</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>102.1557845699797</v>
       </c>
       <c r="E28" t="n">
-        <v>8.483880264975597e-13</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>147.6895341487362</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>41.16673120696654</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3326,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>22.65115569188744</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.154071768027</v>
+        <v>1250.335715171</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>881.3731982305885</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>523.1074996238381</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>523.1074996238381</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>523.1074996238381</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>108.0350494688345</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.0350494688345</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4352,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2027.074887210934</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559525</v>
+        <v>1636.935555235122</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>249.7936412903424</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1445.82444877259</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1156.721581898233</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>902.0370936923462</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>612.6199236553855</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X4" t="n">
-        <v>384.6303727573681</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y4" t="n">
-        <v>163.8377936138381</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.723851760223</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.761334819812</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.495636213061</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>636.7073836148168</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>225.7214788252092</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4562,13 +4562,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3227.300479928088</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3021.322732312311</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>1749.723851760223</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
@@ -4644,52 +4644,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1302.938768680375</v>
       </c>
       <c r="V7" t="n">
-        <v>1161.740577577775</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W7" t="n">
-        <v>959.3421218646239</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X7" t="n">
-        <v>959.3421218646239</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>310.0549803959802</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1063.934757721592</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>797.4834000772721</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>628.5472171493652</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>478.4305777370295</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1522.919219987755</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1233.816353113399</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>979.1318649075118</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>979.1318649075118</v>
+        <v>943.1160480830762</v>
       </c>
       <c r="X10" t="n">
-        <v>979.1318649075118</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y10" t="n">
-        <v>979.1318649075118</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614634</v>
       </c>
       <c r="D11" t="n">
-        <v>1589.996253358682</v>
+        <v>1539.196732007884</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.208000760437</v>
+        <v>1153.40847940964</v>
       </c>
       <c r="F11" t="n">
-        <v>793.22209597083</v>
+        <v>742.422574620032</v>
       </c>
       <c r="G11" t="n">
         <v>379.2389888872365</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608057</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251939</v>
+        <v>372.3074987251948</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128758</v>
+        <v>841.9378825128767</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.457663018652</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.46222495769</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874796</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333933</v>
+        <v>3602.609239333935</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021283</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.49737412729</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304028</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070877</v>
       </c>
       <c r="T11" t="n">
-        <v>4353.904749750194</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U11" t="n">
-        <v>4100.461420469744</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V11" t="n">
-        <v>3769.398533126173</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W11" t="n">
         <v>3416.629877856059</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.164119594979</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y11" t="n">
-        <v>2653.024787619167</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>313.4646645829333</v>
+        <v>313.4646645829334</v>
       </c>
       <c r="G12" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="K12" t="n">
         <v>423.3203657894393</v>
       </c>
       <c r="L12" t="n">
-        <v>423.3203657894393</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M12" t="n">
-        <v>733.6583989593863</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N12" t="n">
-        <v>1355.754362358723</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O12" t="n">
-        <v>1902.630837358917</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.214355784993</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5176,25 +5176,25 @@
         <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>325.1228070941663</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="D13" t="n">
-        <v>325.1228070941663</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="E13" t="n">
-        <v>239.7015707239909</v>
+        <v>381.5742876855605</v>
       </c>
       <c r="F13" t="n">
-        <v>92.81162322608054</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="G13" t="n">
-        <v>92.81162322608054</v>
+        <v>234.6843401876502</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608056</v>
       </c>
       <c r="J13" t="n">
         <v>171.7937461156345</v>
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>562.8579153358626</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>789.7592298206043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2253.366709591041</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1964.291482935239</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1709.606994729352</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1420.189824692392</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1192.200273794374</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.4076946508441</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5498,7 +5498,7 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5744,34 +5744,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,19 +5832,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>481.4479471244862</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>333.5348535420931</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F22" t="n">
-        <v>333.5348535420931</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>166.3387542569731</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,19 +6063,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>580.899304487668</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6309,22 +6309,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>653.7474797708879</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429811</v>
+        <v>344.9174178121626</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.279732885523</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.595244679636</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.178074642675</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.188523744658</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>835.3959446011277</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="29">
@@ -6437,40 +6437,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>768.5380889459586</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>599.6019060180517</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>449.485266605716</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>449.485266605716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>302.5953191078056</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>135.3992198226856</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.1865537761984</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,31 +6947,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,13 +7184,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>372.4964262156764</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,16 +7725,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.78180958989765</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>34.05113875223285</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0.469226066641394</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22705,19 +22705,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>110.406301059923</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>21.59472895491481</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.2915261372907</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,13 +23416,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>37.25561770506482</v>
       </c>
       <c r="E13" t="n">
-        <v>61.86693864009551</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,7 +23431,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23659,10 +23659,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>46.45968844823572</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016435</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856683</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459264</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>68.49784254931272</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>144.5956654067412</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>46.4596884482327</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>138.4949402405079</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>99.12798163925731</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238289</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>949058.1005310203</v>
+        <v>949058.1005310207</v>
       </c>
     </row>
     <row r="3">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503241</v>
+        <v>375475.6212503242</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="E2" t="n">
-        <v>401339.8858190153</v>
+        <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="I2" t="n">
+        <v>403573.2998450029</v>
+      </c>
+      <c r="J2" t="n">
         <v>403573.2998450031</v>
       </c>
-      <c r="J2" t="n">
-        <v>403573.299845003</v>
-      </c>
       <c r="K2" t="n">
-        <v>403573.2998450029</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="L2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
-        <v>403573.299845003</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
         <v>403573.2998450031</v>
@@ -26363,28 +26363,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313680.0588189855</v>
+        <v>313680.0588189856</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504116</v>
+        <v>11452.26311504085</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>81924.27863832924</v>
+        <v>81924.2786383293</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.017355704674</v>
+        <v>3077.017355704618</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50348.70169477136</v>
+        <v>50348.70169477149</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314486</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="E4" t="n">
         <v>11160.49963056816</v>
@@ -26433,10 +26433,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26448,16 +26448,16 @@
         <v>11167.03225179352</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1111551.766733433</v>
+        <v>-1111726.993051842</v>
       </c>
       <c r="C6" t="n">
-        <v>212232.8773476033</v>
+        <v>212232.8773476034</v>
       </c>
       <c r="D6" t="n">
-        <v>212232.8773476035</v>
+        <v>212232.8773476034</v>
       </c>
       <c r="E6" t="n">
-        <v>-23642.80114437683</v>
+        <v>-23688.70613994249</v>
       </c>
       <c r="F6" t="n">
-        <v>279831.4746542613</v>
+        <v>279796.7367288259</v>
       </c>
       <c r="G6" t="n">
-        <v>291283.7377693022</v>
+        <v>291248.9998438663</v>
       </c>
       <c r="H6" t="n">
-        <v>291283.7377693026</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="I6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="J6" t="n">
-        <v>73752.53537202491</v>
+        <v>73717.79744658928</v>
       </c>
       <c r="K6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="L6" t="n">
-        <v>291283.7377693023</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="M6" t="n">
-        <v>209359.4591309731</v>
+        <v>209324.7212055374</v>
       </c>
       <c r="N6" t="n">
-        <v>288206.7204135977</v>
+        <v>288171.9824881621</v>
       </c>
       <c r="O6" t="n">
-        <v>291283.7377693024</v>
+        <v>291248.9998438667</v>
       </c>
       <c r="P6" t="n">
-        <v>291283.7377693024</v>
+        <v>291248.9998438667</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1160.145290326007</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,16 +26969,16 @@
         <v>268.2643481230875</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625287693</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>328.7438349237138</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237141</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>328.7438349237138</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.5629977736412</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>331.2217530187747</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>325.2796066984613</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>294.8813866572839</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>11.86547352390495</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>86.14852718057102</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>237.6489796867192</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>106.8874909782327</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>97.91855245792827</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>259.8537394682806</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28491,7 +28491,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -28533,7 +28533,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -28570,10 +28570,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28962,7 +28962,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29727,7 +29727,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -30046,7 +30046,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-3.201312064710532e-13</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31844,16 +31844,16 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>455.6067946997425</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P12" t="n">
         <v>557.7961431982454</v>
@@ -31862,7 +31862,7 @@
         <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>460.4622569139914</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,10 +32309,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422586</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>616.9033572954392</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32552,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>232.1537035940586</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33251,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,34 +33266,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>590.4022545401851</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33737,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>266.392684868584</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35492,16 +35492,16 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>313.4727607777242</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P12" t="n">
         <v>423.8217357839152</v>
@@ -35510,7 +35510,7 @@
         <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.6208179396324</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>485.5616452121058</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>90.01966967204032</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,22 +36914,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>451.847874760311</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>128.551245894225</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
